--- a/01_Paradigms/ER-ED/ER_Training/Stimuli_distract.xlsx
+++ b/01_Paradigms/ER-ED/ER_Training/Stimuli_distract.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\scheffel\Scheffel\Forschung\A_Projects\2021_COG-ER-ED\COG-ER-ED\01_Paradigms\ER-ED\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\scheffel\Scheffel\Forschung\A_Projects\2021_COG-ER-ED\COG-ER-ED\01_Paradigms\ER-ED\ER_Training\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="8">
   <si>
     <t>ImageFile</t>
   </si>
@@ -49,9 +49,6 @@
   </si>
   <si>
     <t>Stimuli/239.jpg</t>
-  </si>
-  <si>
-    <t>StimSet</t>
   </si>
 </sst>
 </file>
@@ -371,48 +368,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="B2" s="1"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="1"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1" t="s">
+      <c r="B3" s="1"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="1"/>
+      <c r="B4" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/01_Paradigms/ER-ED/ER_Training/Stimuli_distract.xlsx
+++ b/01_Paradigms/ER-ED/ER_Training/Stimuli_distract.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
     <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913" iterateDelta="1E-4"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="10">
   <si>
     <t>ImageFile</t>
   </si>
@@ -42,13 +42,19 @@
     <t>.jpg</t>
   </si>
   <si>
-    <t>Stimuli/9904.jpg</t>
+    <t>Stimuli/220.jpg</t>
   </si>
   <si>
-    <t>Stimuli/237.jpg</t>
+    <t>Stimuli/9900.jpg</t>
   </si>
   <si>
-    <t>Stimuli/239.jpg</t>
+    <t>Stimuli/1050.jpg</t>
+  </si>
+  <si>
+    <t>Stimuli/2120.jpg</t>
+  </si>
+  <si>
+    <t>Stimuli/2717.jpg</t>
   </si>
 </sst>
 </file>
@@ -368,36 +374,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="1"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
